--- a/data/trans_bre/P14B23-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P14B23-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 10,03</t>
+          <t>1,7; 9,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,37; 12,99</t>
+          <t>4,31; 12,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 5,07</t>
+          <t>0,95; 5,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>43,46; 570,12</t>
+          <t>21,41; 544,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>77,3; 1000,71</t>
+          <t>80,0; 1092,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,01; 845,27</t>
+          <t>24,78; 888,34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 10,86</t>
+          <t>3,57; 10,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,78</t>
+          <t>2,95; 8,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 9,65</t>
+          <t>3,72; 9,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>58,98; 653,18</t>
+          <t>60,5; 565,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>79,32; 534,93</t>
+          <t>72,3; 534,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>56,51; 369,54</t>
+          <t>62,92; 352,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,06; 6,99</t>
+          <t>0,2; 6,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,93; 7,71</t>
+          <t>2,01; 7,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 3,62</t>
+          <t>-2,98; 3,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 448,65</t>
+          <t>-1,52; 385,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>69,79; —</t>
+          <t>60,14; 2487,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-35,73; 89,11</t>
+          <t>-37,17; 98,74</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 11,27</t>
+          <t>5,29; 11,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,94</t>
+          <t>1,14; 6,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 5,3</t>
+          <t>-3,16; 5,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>276,69; —</t>
+          <t>308,39; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,36; 963,65</t>
+          <t>28,47; 1042,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,33; 153,76</t>
+          <t>-37,75; 151,56</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,52; 18,81</t>
+          <t>7,74; 19,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 8,06</t>
+          <t>-1,19; 8,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 4,55</t>
+          <t>-0,34; 4,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>119,82; 1216,92</t>
+          <t>121,3; 1241,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,17; 260,91</t>
+          <t>-18,96; 290,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 1033,95</t>
+          <t>-21,35; 945,96</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,8; 9,7</t>
+          <t>1,39; 8,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>5,12; 12,93</t>
+          <t>5,51; 13,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 4,97</t>
+          <t>-1,87; 4,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,61; 542,99</t>
+          <t>10,21; 498,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>165,17; —</t>
+          <t>173,38; 3605,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-26,79; 129,08</t>
+          <t>-23,78; 121,15</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,47</t>
+          <t>1,18; 5,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,0</t>
+          <t>1,21; 5,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 6,67</t>
+          <t>-2,85; 6,36</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,42; 320,15</t>
+          <t>24,57; 330,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>45,93; 912,11</t>
+          <t>42,04; 968,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-36,05; 166,92</t>
+          <t>-37,77; 158,45</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,43; 6,39</t>
+          <t>2,26; 6,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,37; 6,51</t>
+          <t>2,27; 6,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,35; 7,08</t>
+          <t>3,24; 7,36</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>75,41; 539,45</t>
+          <t>78,63; 537,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>73,89; 430,48</t>
+          <t>69,59; 410,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>99,71; 764,04</t>
+          <t>108,64; 765,57</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,48; 6,65</t>
+          <t>4,41; 6,65</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,79; 5,77</t>
+          <t>3,77; 5,73</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,89</t>
+          <t>2,03; 4,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>149,19; 317,44</t>
+          <t>149,08; 326,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>164,33; 345,51</t>
+          <t>158,33; 353,73</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>53,63; 166,43</t>
+          <t>54,83; 154,67</t>
         </is>
       </c>
     </row>
